--- a/sources/fact_extraction_viewpoint/economy-table29.xlsx
+++ b/sources/fact_extraction_viewpoint/economy-table29.xlsx
@@ -417,7 +417,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,12 +433,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE2F2FB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB7DEF6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,10 +514,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -532,31 +526,31 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -831,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V385"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V385" sqref="V385"/>
+    <sheetView tabSelected="1" topLeftCell="E161" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U180" sqref="U180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -845,12 +839,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:21">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="2:21">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
     </row>
@@ -917,19 +911,19 @@
       </c>
     </row>
     <row r="5" spans="2:21">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="9" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -979,28 +973,28 @@
       </c>
     </row>
     <row r="6" spans="2:21" ht="15" customHeight="1">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="7" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11293,28 +11287,28 @@
       </c>
     </row>
     <row r="180" spans="2:21" ht="15" customHeight="1">
-      <c r="B180" s="8" t="s">
+      <c r="B180" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C180" s="9"/>
-      <c r="D180" s="9"/>
-      <c r="E180" s="9"/>
-      <c r="F180" s="9"/>
-      <c r="G180" s="9"/>
-      <c r="H180" s="9"/>
-      <c r="I180" s="9"/>
-      <c r="J180" s="9"/>
-      <c r="K180" s="9"/>
-      <c r="L180" s="9"/>
-      <c r="M180" s="9"/>
-      <c r="N180" s="9"/>
-      <c r="O180" s="9"/>
-      <c r="P180" s="9"/>
-      <c r="Q180" s="9"/>
-      <c r="R180" s="9"/>
-      <c r="S180" s="9"/>
-      <c r="T180" s="9"/>
-      <c r="U180" s="7" t="s">
+      <c r="C180" s="14"/>
+      <c r="D180" s="14"/>
+      <c r="E180" s="14"/>
+      <c r="F180" s="14"/>
+      <c r="G180" s="14"/>
+      <c r="H180" s="14"/>
+      <c r="I180" s="14"/>
+      <c r="J180" s="14"/>
+      <c r="K180" s="14"/>
+      <c r="L180" s="14"/>
+      <c r="M180" s="14"/>
+      <c r="N180" s="14"/>
+      <c r="O180" s="14"/>
+      <c r="P180" s="14"/>
+      <c r="Q180" s="14"/>
+      <c r="R180" s="14"/>
+      <c r="S180" s="14"/>
+      <c r="T180" s="14"/>
+      <c r="U180" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -20452,7 +20446,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="335" spans="2:21" ht="43.5">
+    <row r="335" spans="2:21" ht="58">
       <c r="B335" s="1" t="s">
         <v>98</v>
       </c>
@@ -20505,7 +20499,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="336" spans="2:21" ht="43.5">
+    <row r="336" spans="2:21" ht="58">
       <c r="B336" s="1" t="s">
         <v>98</v>
       </c>
@@ -20558,7 +20552,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="337" spans="2:21" ht="43.5">
+    <row r="337" spans="2:21" ht="58">
       <c r="B337" s="1" t="s">
         <v>98</v>
       </c>
@@ -20620,7 +20614,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="338" spans="2:21" ht="43.5">
+    <row r="338" spans="2:21" ht="58">
       <c r="B338" s="1" t="s">
         <v>98</v>
       </c>
@@ -20682,7 +20676,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="339" spans="2:21" ht="43.5">
+    <row r="339" spans="2:21" ht="58">
       <c r="B339" s="1" t="s">
         <v>98</v>
       </c>
@@ -23317,10 +23311,10 @@
       </c>
     </row>
     <row r="385" spans="2:22">
-      <c r="B385" s="14" t="s">
+      <c r="B385" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="V385" s="15" t="s">
+      <c r="V385" s="11" t="s">
         <v>0</v>
       </c>
     </row>
